--- a/Data/euro22_Suvi.xlsx
+++ b/Data/euro22_Suvi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE3E465-B1C6-45D1-AB52-F1F39DD6BC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE24172-B642-4055-BDB2-CD360AC9EEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>Suvi Rinkineva</t>
   </si>
   <si>
-    <t>Pernilla Hader</t>
-  </si>
-  <si>
     <t>Alexia Puderas</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Mestari</t>
+  </si>
+  <si>
+    <t>Pernille Harder</t>
   </si>
 </sst>
 </file>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +926,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="E2" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -958,7 +958,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N4" s="34" t="s">
         <v>18</v>
@@ -967,10 +967,10 @@
         <v>17</v>
       </c>
       <c r="Q4" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="34" t="s">
         <v>60</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1005,13 +1005,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O6" s="24" t="s">
         <v>6</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>37</v>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>9</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>40</v>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>6</v>
@@ -1726,7 +1726,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>

--- a/Data/euro22_Suvi.xlsx
+++ b/Data/euro22_Suvi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE24172-B642-4055-BDB2-CD360AC9EEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A3A78D-2367-44DD-9D1F-EA9A7E264A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -195,15 +195,9 @@
     <t>Alexia Puderas</t>
   </si>
   <si>
-    <t>Ada Hergerberg</t>
-  </si>
-  <si>
     <t>Ellen White</t>
   </si>
   <si>
-    <t>Vivianne  Miedema</t>
-  </si>
-  <si>
     <t>Espanja - Suomi</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>Pernille Harder</t>
+  </si>
+  <si>
+    <t>Ada Hegerberg</t>
+  </si>
+  <si>
+    <t>Vivianne Miedema</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +926,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="E2" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -958,7 +958,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N4" s="34" t="s">
         <v>18</v>
@@ -967,10 +967,10 @@
         <v>17</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>32</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>37</v>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>9</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>40</v>
@@ -1726,7 +1726,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
